--- a/Documents/Planificare PAW.xlsx
+++ b/Documents/Planificare PAW.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Manuela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PAW\PAW\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{56F5E6A0-8224-44F7-9CA6-B13A4163E226}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="73">
   <si>
     <t>Functionalitate</t>
   </si>
@@ -232,12 +233,18 @@
   </si>
   <si>
     <t>validare nume utilizator si parola</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -604,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -658,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -698,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -719,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -761,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>6</v>
@@ -842,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
@@ -882,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -902,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
@@ -942,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -1002,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>6</v>
@@ -1062,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>6</v>
@@ -1706,6 +1713,23 @@
       </c>
       <c r="G54" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
